--- a/Book3.xlsx
+++ b/Book3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TrendtAdams\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8A6495BE-1DD1-41D8-B235-3C1D7CD62440}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD6DBF0D-BD8B-4F7A-A595-C068D48BA8A0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12105" xr2:uid="{D7DD5E6E-219E-4BE7-9C5A-69E31D619451}"/>
   </bookViews>
@@ -95,7 +95,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$£-809]#,##0.00"/>
+    <numFmt numFmtId="164" formatCode="[$£-809]#,##0.00"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -106,12 +106,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -126,15 +138,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -452,7 +465,7 @@
   <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -465,11 +478,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
@@ -618,51 +631,51 @@
         <v>12</v>
       </c>
       <c r="B9" s="1">
-        <f>SUM(B4+B5+B6+B7)</f>
+        <f t="shared" ref="B9:H9" si="0">SUM(B4+B5+B6+B7)</f>
         <v>17</v>
       </c>
       <c r="C9">
-        <f>SUM(C4+C5+C6+C7)</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="D9">
-        <f>SUM(D4+D5+D6+D7)</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="E9">
-        <f>SUM(E4+E5+E6+E7)</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="F9">
-        <f>SUM(F4+F5+F6+F7)</f>
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="G9">
-        <f>SUM(G4+G5+G6+G7)</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="H9">
-        <f>SUM(H4+H5+H6+H7)</f>
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
       <c r="F11">
         <v>80</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="2"/>
+      <c r="B13" s="3"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
@@ -679,13 +692,13 @@
       <c r="A15" t="s">
         <v>1</v>
       </c>
-      <c r="B15" s="3">
+      <c r="B15" s="2">
         <v>0.35</v>
       </c>
       <c r="C15">
         <v>17</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="2">
         <v>5.95</v>
       </c>
     </row>
@@ -693,65 +706,67 @@
       <c r="A16" t="s">
         <v>2</v>
       </c>
-      <c r="B16" s="3">
+      <c r="B16" s="2">
         <v>0.28999999999999998</v>
       </c>
       <c r="C16">
         <v>27</v>
       </c>
-      <c r="D16" s="3">
+      <c r="D16" s="2">
         <v>7.83</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>3</v>
       </c>
-      <c r="B17" s="3">
+      <c r="B17" s="2">
         <v>0.32</v>
       </c>
       <c r="C17">
         <v>25</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="2">
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>4</v>
       </c>
-      <c r="B18" s="3">
+      <c r="B18" s="2">
         <v>0.4</v>
       </c>
       <c r="C18">
         <v>11</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="2">
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="F20" s="3">
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="F20" s="2">
+        <f>SUM(D15,D16,D17,D18)</f>
         <v>26.18</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="F21" s="3">
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="F21" s="2">
         <v>1361.36</v>
       </c>
+      <c r="G21" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/Book3.xlsx
+++ b/Book3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TrendtAdams\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD6DBF0D-BD8B-4F7A-A595-C068D48BA8A0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{234BF6EE-D155-4236-BC1F-4218A28ABBC5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12105" xr2:uid="{D7DD5E6E-219E-4BE7-9C5A-69E31D619451}"/>
   </bookViews>
@@ -144,10 +144,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -478,11 +478,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
@@ -660,22 +660,22 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
       <c r="F11">
         <v>80</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="3"/>
+      <c r="B13" s="4"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
@@ -745,28 +745,28 @@
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
       <c r="F20" s="2">
         <f>SUM(D15,D16,D17,D18)</f>
         <v>26.18</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
       <c r="F21" s="2">
         <v>1361.36</v>
       </c>
-      <c r="G21" s="4"/>
+      <c r="G21" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/Book3.xlsx
+++ b/Book3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TrendtAdams\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{234BF6EE-D155-4236-BC1F-4218A28ABBC5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05DEAC5C-FB5D-443B-BF22-03CD067B8985}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12105" xr2:uid="{D7DD5E6E-219E-4BE7-9C5A-69E31D619451}"/>
   </bookViews>

--- a/Book3.xlsx
+++ b/Book3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TrendtAdams\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05DEAC5C-FB5D-443B-BF22-03CD067B8985}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62630822-701B-4FD9-9B3E-953D14146F13}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12105" xr2:uid="{D7DD5E6E-219E-4BE7-9C5A-69E31D619451}"/>
   </bookViews>
@@ -465,7 +465,7 @@
   <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -678,13 +678,13 @@
       <c r="B13" s="4"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
+      <c r="B14" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="1" t="s">
         <v>18</v>
       </c>
     </row>
